--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Jag1-Cd46.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Jag1-Cd46.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.210890225460041</v>
+        <v>10.27784</v>
       </c>
       <c r="H2">
-        <v>9.210890225460041</v>
+        <v>30.83352</v>
       </c>
       <c r="I2">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="J2">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.11595834719938</v>
+        <v>8.452892666666665</v>
       </c>
       <c r="N2">
-        <v>7.11595834719938</v>
+        <v>25.358678</v>
       </c>
       <c r="O2">
-        <v>0.5406372012839191</v>
+        <v>0.5664982795292011</v>
       </c>
       <c r="P2">
-        <v>0.5406372012839191</v>
+        <v>0.566498279529201</v>
       </c>
       <c r="Q2">
-        <v>65.54431118499956</v>
+        <v>86.87747836517332</v>
       </c>
       <c r="R2">
-        <v>65.54431118499956</v>
+        <v>781.8973052865599</v>
       </c>
       <c r="S2">
-        <v>0.1200298928713237</v>
+        <v>0.1304652486727239</v>
       </c>
       <c r="T2">
-        <v>0.1200298928713237</v>
+        <v>0.1304652486727239</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.210890225460041</v>
+        <v>10.27784</v>
       </c>
       <c r="H3">
-        <v>9.210890225460041</v>
+        <v>30.83352</v>
       </c>
       <c r="I3">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="J3">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.30350788983694</v>
+        <v>3.429517666666667</v>
       </c>
       <c r="N3">
-        <v>3.30350788983694</v>
+        <v>10.288553</v>
       </c>
       <c r="O3">
-        <v>0.2509850638296249</v>
+        <v>0.2298403557687432</v>
       </c>
       <c r="P3">
-        <v>0.2509850638296249</v>
+        <v>0.2298403557687431</v>
       </c>
       <c r="Q3">
-        <v>30.42824853222919</v>
+        <v>35.24803385517333</v>
       </c>
       <c r="R3">
-        <v>30.42824853222919</v>
+        <v>317.23230469656</v>
       </c>
       <c r="S3">
-        <v>0.05572259965135382</v>
+        <v>0.05293251586803932</v>
       </c>
       <c r="T3">
-        <v>0.05572259965135382</v>
+        <v>0.05293251586803931</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.210890225460041</v>
+        <v>10.27784</v>
       </c>
       <c r="H4">
-        <v>9.210890225460041</v>
+        <v>30.83352</v>
       </c>
       <c r="I4">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="J4">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.510811841933261</v>
+        <v>0.6234873333333334</v>
       </c>
       <c r="N4">
-        <v>0.510811841933261</v>
+        <v>1.870462</v>
       </c>
       <c r="O4">
-        <v>0.03880909234301118</v>
+        <v>0.04178504514015868</v>
       </c>
       <c r="P4">
-        <v>0.03880909234301118</v>
+        <v>0.04178504514015867</v>
       </c>
       <c r="Q4">
-        <v>4.705031801912313</v>
+        <v>6.408103054026667</v>
       </c>
       <c r="R4">
-        <v>4.705031801912313</v>
+        <v>57.67292748624</v>
       </c>
       <c r="S4">
-        <v>0.008616223939644561</v>
+        <v>0.009623147151554216</v>
       </c>
       <c r="T4">
-        <v>0.008616223939644561</v>
+        <v>0.009623147151554212</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.210890225460041</v>
+        <v>10.27784</v>
       </c>
       <c r="H5">
-        <v>9.210890225460041</v>
+        <v>30.83352</v>
       </c>
       <c r="I5">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="J5">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.23189117298019</v>
+        <v>2.415405666666667</v>
       </c>
       <c r="N5">
-        <v>2.23189117298019</v>
+        <v>7.246217000000001</v>
       </c>
       <c r="O5">
-        <v>0.1695686425434447</v>
+        <v>0.1618763195618971</v>
       </c>
       <c r="P5">
-        <v>0.1695686425434447</v>
+        <v>0.1618763195618971</v>
       </c>
       <c r="Q5">
-        <v>20.55770458949377</v>
+        <v>24.82515297709334</v>
       </c>
       <c r="R5">
-        <v>20.55770458949377</v>
+        <v>223.42637679384</v>
       </c>
       <c r="S5">
-        <v>0.03764688399261074</v>
+        <v>0.03728031496127359</v>
       </c>
       <c r="T5">
-        <v>0.03764688399261074</v>
+        <v>0.03728031496127358</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.517112246968</v>
+        <v>14.56812733333333</v>
       </c>
       <c r="H6">
-        <v>14.517112246968</v>
+        <v>43.704382</v>
       </c>
       <c r="I6">
-        <v>0.3499146459778034</v>
+        <v>0.3264360600001921</v>
       </c>
       <c r="J6">
-        <v>0.3499146459778034</v>
+        <v>0.326436060000192</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.11595834719938</v>
+        <v>8.452892666666665</v>
       </c>
       <c r="N6">
-        <v>7.11595834719938</v>
+        <v>25.358678</v>
       </c>
       <c r="O6">
-        <v>0.5406372012839191</v>
+        <v>0.5664982795292011</v>
       </c>
       <c r="P6">
-        <v>0.5406372012839191</v>
+        <v>0.566498279529201</v>
       </c>
       <c r="Q6">
-        <v>103.3031660710423</v>
+        <v>123.1428167029995</v>
       </c>
       <c r="R6">
-        <v>103.3031660710423</v>
+        <v>1108.285350326996</v>
       </c>
       <c r="S6">
-        <v>0.189176874889693</v>
+        <v>0.1849254663663999</v>
       </c>
       <c r="T6">
-        <v>0.189176874889693</v>
+        <v>0.1849254663663998</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.517112246968</v>
+        <v>14.56812733333333</v>
       </c>
       <c r="H7">
-        <v>14.517112246968</v>
+        <v>43.704382</v>
       </c>
       <c r="I7">
-        <v>0.3499146459778034</v>
+        <v>0.3264360600001921</v>
       </c>
       <c r="J7">
-        <v>0.3499146459778034</v>
+        <v>0.326436060000192</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.30350788983694</v>
+        <v>3.429517666666667</v>
       </c>
       <c r="N7">
-        <v>3.30350788983694</v>
+        <v>10.288553</v>
       </c>
       <c r="O7">
-        <v>0.2509850638296249</v>
+        <v>0.2298403557687432</v>
       </c>
       <c r="P7">
-        <v>0.2509850638296249</v>
+        <v>0.2298403557687431</v>
       </c>
       <c r="Q7">
-        <v>47.95739484550726</v>
+        <v>49.96165005991622</v>
       </c>
       <c r="R7">
-        <v>47.95739484550726</v>
+        <v>449.654850539246</v>
       </c>
       <c r="S7">
-        <v>0.08782334975565959</v>
+        <v>0.07502818016619095</v>
       </c>
       <c r="T7">
-        <v>0.08782334975565959</v>
+        <v>0.07502818016619092</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.517112246968</v>
+        <v>14.56812733333333</v>
       </c>
       <c r="H8">
-        <v>14.517112246968</v>
+        <v>43.704382</v>
       </c>
       <c r="I8">
-        <v>0.3499146459778034</v>
+        <v>0.3264360600001921</v>
       </c>
       <c r="J8">
-        <v>0.3499146459778034</v>
+        <v>0.326436060000192</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.510811841933261</v>
+        <v>0.6234873333333334</v>
       </c>
       <c r="N8">
-        <v>0.510811841933261</v>
+        <v>1.870462</v>
       </c>
       <c r="O8">
-        <v>0.03880909234301118</v>
+        <v>0.04178504514015868</v>
       </c>
       <c r="P8">
-        <v>0.03880909234301118</v>
+        <v>0.04178504514015867</v>
       </c>
       <c r="Q8">
-        <v>7.415512846425626</v>
+        <v>9.083042862720443</v>
       </c>
       <c r="R8">
-        <v>7.415512846425626</v>
+        <v>81.74738576448399</v>
       </c>
       <c r="S8">
-        <v>0.01357986980792464</v>
+        <v>0.01364014550248357</v>
       </c>
       <c r="T8">
-        <v>0.01357986980792464</v>
+        <v>0.01364014550248357</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.517112246968</v>
+        <v>14.56812733333333</v>
       </c>
       <c r="H9">
-        <v>14.517112246968</v>
+        <v>43.704382</v>
       </c>
       <c r="I9">
-        <v>0.3499146459778034</v>
+        <v>0.3264360600001921</v>
       </c>
       <c r="J9">
-        <v>0.3499146459778034</v>
+        <v>0.326436060000192</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.23189117298019</v>
+        <v>2.415405666666667</v>
       </c>
       <c r="N9">
-        <v>2.23189117298019</v>
+        <v>7.246217000000001</v>
       </c>
       <c r="O9">
-        <v>0.1695686425434447</v>
+        <v>0.1618763195618971</v>
       </c>
       <c r="P9">
-        <v>0.1695686425434447</v>
+        <v>0.1618763195618971</v>
       </c>
       <c r="Q9">
-        <v>32.40061468117049</v>
+        <v>35.18793731365489</v>
       </c>
       <c r="R9">
-        <v>32.40061468117049</v>
+        <v>316.691435822894</v>
       </c>
       <c r="S9">
-        <v>0.05933455152452614</v>
+        <v>0.05284226796511771</v>
       </c>
       <c r="T9">
-        <v>0.05933455152452614</v>
+        <v>0.05284226796511769</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.3095708462816</v>
+        <v>2.650137</v>
       </c>
       <c r="H10">
-        <v>2.3095708462816</v>
+        <v>7.950411</v>
       </c>
       <c r="I10">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649115</v>
       </c>
       <c r="J10">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649114</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.11595834719938</v>
+        <v>8.452892666666665</v>
       </c>
       <c r="N10">
-        <v>7.11595834719938</v>
+        <v>25.358678</v>
       </c>
       <c r="O10">
-        <v>0.5406372012839191</v>
+        <v>0.5664982795292011</v>
       </c>
       <c r="P10">
-        <v>0.5406372012839191</v>
+        <v>0.566498279529201</v>
       </c>
       <c r="Q10">
-        <v>16.43480994204589</v>
+        <v>22.401323612962</v>
       </c>
       <c r="R10">
-        <v>16.43480994204589</v>
+        <v>201.611912516658</v>
       </c>
       <c r="S10">
-        <v>0.03009671535240417</v>
+        <v>0.03364041303637598</v>
       </c>
       <c r="T10">
-        <v>0.03009671535240417</v>
+        <v>0.03364041303637597</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.3095708462816</v>
+        <v>2.650137</v>
       </c>
       <c r="H11">
-        <v>2.3095708462816</v>
+        <v>7.950411</v>
       </c>
       <c r="I11">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649115</v>
       </c>
       <c r="J11">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649114</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.30350788983694</v>
+        <v>3.429517666666667</v>
       </c>
       <c r="N11">
-        <v>3.30350788983694</v>
+        <v>10.288553</v>
       </c>
       <c r="O11">
-        <v>0.2509850638296249</v>
+        <v>0.2298403557687432</v>
       </c>
       <c r="P11">
-        <v>0.2509850638296249</v>
+        <v>0.2298403557687431</v>
       </c>
       <c r="Q11">
-        <v>7.629685512828643</v>
+        <v>9.088691660587001</v>
       </c>
       <c r="R11">
-        <v>7.629685512828643</v>
+        <v>81.798224945283</v>
       </c>
       <c r="S11">
-        <v>0.01397207962353718</v>
+        <v>0.0136486283893287</v>
       </c>
       <c r="T11">
-        <v>0.01397207962353718</v>
+        <v>0.0136486283893287</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.3095708462816</v>
+        <v>2.650137</v>
       </c>
       <c r="H12">
-        <v>2.3095708462816</v>
+        <v>7.950411</v>
       </c>
       <c r="I12">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649115</v>
       </c>
       <c r="J12">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649114</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.510811841933261</v>
+        <v>0.6234873333333334</v>
       </c>
       <c r="N12">
-        <v>0.510811841933261</v>
+        <v>1.870462</v>
       </c>
       <c r="O12">
-        <v>0.03880909234301118</v>
+        <v>0.04178504514015868</v>
       </c>
       <c r="P12">
-        <v>0.03880909234301118</v>
+        <v>0.04178504514015867</v>
       </c>
       <c r="Q12">
-        <v>1.179756138064464</v>
+        <v>1.652326851098</v>
       </c>
       <c r="R12">
-        <v>1.179756138064464</v>
+        <v>14.870941659882</v>
       </c>
       <c r="S12">
-        <v>0.002160462140893962</v>
+        <v>0.002481324706628867</v>
       </c>
       <c r="T12">
-        <v>0.002160462140893962</v>
+        <v>0.002481324706628866</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.3095708462816</v>
+        <v>2.650137</v>
       </c>
       <c r="H13">
-        <v>2.3095708462816</v>
+        <v>7.950411</v>
       </c>
       <c r="I13">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649115</v>
       </c>
       <c r="J13">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649114</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.23189117298019</v>
+        <v>2.415405666666667</v>
       </c>
       <c r="N13">
-        <v>2.23189117298019</v>
+        <v>7.246217000000001</v>
       </c>
       <c r="O13">
-        <v>0.1695686425434447</v>
+        <v>0.1618763195618971</v>
       </c>
       <c r="P13">
-        <v>0.1695686425434447</v>
+        <v>0.1618763195618971</v>
       </c>
       <c r="Q13">
-        <v>5.154710785188289</v>
+        <v>6.401155927243001</v>
       </c>
       <c r="R13">
-        <v>5.154710785188289</v>
+        <v>57.610403345187</v>
       </c>
       <c r="S13">
-        <v>0.00943971142792949</v>
+        <v>0.009612714544157597</v>
       </c>
       <c r="T13">
-        <v>0.00943971142792949</v>
+        <v>0.009612714544157595</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.4500077638178</v>
+        <v>17.13170833333333</v>
       </c>
       <c r="H14">
-        <v>15.4500077638178</v>
+        <v>51.395125</v>
       </c>
       <c r="I14">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="J14">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.11595834719938</v>
+        <v>8.452892666666665</v>
       </c>
       <c r="N14">
-        <v>7.11595834719938</v>
+        <v>25.358678</v>
       </c>
       <c r="O14">
-        <v>0.5406372012839191</v>
+        <v>0.5664982795292011</v>
       </c>
       <c r="P14">
-        <v>0.5406372012839191</v>
+        <v>0.566498279529201</v>
       </c>
       <c r="Q14">
-        <v>109.9416117112345</v>
+        <v>144.8124917383055</v>
       </c>
       <c r="R14">
-        <v>109.9416117112345</v>
+        <v>1303.31242564475</v>
       </c>
       <c r="S14">
-        <v>0.2013337181704983</v>
+        <v>0.2174671514537013</v>
       </c>
       <c r="T14">
-        <v>0.2013337181704983</v>
+        <v>0.2174671514537012</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.4500077638178</v>
+        <v>17.13170833333333</v>
       </c>
       <c r="H15">
-        <v>15.4500077638178</v>
+        <v>51.395125</v>
       </c>
       <c r="I15">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="J15">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.30350788983694</v>
+        <v>3.429517666666667</v>
       </c>
       <c r="N15">
-        <v>3.30350788983694</v>
+        <v>10.288553</v>
       </c>
       <c r="O15">
-        <v>0.2509850638296249</v>
+        <v>0.2298403557687432</v>
       </c>
       <c r="P15">
-        <v>0.2509850638296249</v>
+        <v>0.2298403557687431</v>
       </c>
       <c r="Q15">
-        <v>51.03922254581408</v>
+        <v>58.75349638934722</v>
       </c>
       <c r="R15">
-        <v>51.03922254581408</v>
+        <v>528.781467504125</v>
       </c>
       <c r="S15">
-        <v>0.09346703479907435</v>
+        <v>0.08823103134518422</v>
       </c>
       <c r="T15">
-        <v>0.09346703479907435</v>
+        <v>0.08823103134518419</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.4500077638178</v>
+        <v>17.13170833333333</v>
       </c>
       <c r="H16">
-        <v>15.4500077638178</v>
+        <v>51.395125</v>
       </c>
       <c r="I16">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="J16">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.510811841933261</v>
+        <v>0.6234873333333334</v>
       </c>
       <c r="N16">
-        <v>0.510811841933261</v>
+        <v>1.870462</v>
       </c>
       <c r="O16">
-        <v>0.03880909234301118</v>
+        <v>0.04178504514015868</v>
       </c>
       <c r="P16">
-        <v>0.03880909234301118</v>
+        <v>0.04178504514015867</v>
       </c>
       <c r="Q16">
-        <v>7.892046923718953</v>
+        <v>10.68140314419444</v>
       </c>
       <c r="R16">
-        <v>7.892046923718953</v>
+        <v>96.13262829775</v>
       </c>
       <c r="S16">
-        <v>0.01445253645454802</v>
+        <v>0.01604042777949202</v>
       </c>
       <c r="T16">
-        <v>0.01445253645454802</v>
+        <v>0.01604042777949202</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.4500077638178</v>
+        <v>17.13170833333333</v>
       </c>
       <c r="H17">
-        <v>15.4500077638178</v>
+        <v>51.395125</v>
       </c>
       <c r="I17">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="J17">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.23189117298019</v>
+        <v>2.415405666666667</v>
       </c>
       <c r="N17">
-        <v>2.23189117298019</v>
+        <v>7.246217000000001</v>
       </c>
       <c r="O17">
-        <v>0.1695686425434447</v>
+        <v>0.1618763195618971</v>
       </c>
       <c r="P17">
-        <v>0.1695686425434447</v>
+        <v>0.1618763195618971</v>
       </c>
       <c r="Q17">
-        <v>34.48273595054035</v>
+        <v>41.38002538801389</v>
       </c>
       <c r="R17">
-        <v>34.48273595054035</v>
+        <v>372.420228492125</v>
       </c>
       <c r="S17">
-        <v>0.06314749559837833</v>
+        <v>0.0621410220913482</v>
       </c>
       <c r="T17">
-        <v>0.06314749559837833</v>
+        <v>0.06214102209134818</v>
       </c>
     </row>
   </sheetData>
